--- a/dataset/datasetojol.xlsx
+++ b/dataset/datasetojol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\AnalisisSentimen\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A637915-4F42-4366-AD26-02D6ACCF04C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94FBF88-03CC-42D7-99AB-C80146B38F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6358B130-2820-4007-B053-28E10169EA08}"/>
   </bookViews>
@@ -2611,187 +2611,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3274,8 +3094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20069F0-3DC3-4BBF-8786-B7E50189FACA}">
   <dimension ref="A1:GS501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0">
-      <selection activeCell="D297" sqref="D297"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0">
+      <selection activeCell="D360" sqref="D360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11256,50 +11076,50 @@
   </sheetData>
   <autoFilter ref="E2:E486" xr:uid="{C20069F0-3DC3-4BBF-8786-B7E50189FACA}"/>
   <conditionalFormatting sqref="D258:D393">
-    <cfRule type="duplicateValues" dxfId="34" priority="751"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="751"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258:D408">
-    <cfRule type="duplicateValues" dxfId="33" priority="752"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="752"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D52">
-    <cfRule type="duplicateValues" dxfId="32" priority="785"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="786"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="785"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="786"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D130">
-    <cfRule type="duplicateValues" dxfId="30" priority="923"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="923"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D129">
-    <cfRule type="duplicateValues" dxfId="29" priority="926"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="926"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D219:D221 D252:D257 D2:D213">
-    <cfRule type="duplicateValues" dxfId="28" priority="940"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="940"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D168 D1:E1">
-    <cfRule type="duplicateValues" dxfId="27" priority="947"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="947"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D258:D408 D2:D168 D1:E1">
-    <cfRule type="duplicateValues" dxfId="26" priority="950"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="950"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D228">
-    <cfRule type="duplicateValues" dxfId="25" priority="964"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="964"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D229:D230">
-    <cfRule type="duplicateValues" dxfId="24" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229:D230">
-    <cfRule type="duplicateValues" dxfId="23" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D231:D232">
-    <cfRule type="duplicateValues" dxfId="22" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C231:D232">
-    <cfRule type="duplicateValues" dxfId="21" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D233:D251">
-    <cfRule type="duplicateValues" dxfId="20" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C233:D251">
-    <cfRule type="duplicateValues" dxfId="19" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D251">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
